--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="유진기업" sheetId="1" r:id="rId1"/>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3126,6 +3126,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3814,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5540,6 +5541,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1007,1015 +1007,1016 @@
     <t>2016.12.31</t>
   </si>
   <si>
+    <t>제 66기</t>
+  </si>
+  <si>
+    <t>제 65기</t>
+  </si>
+  <si>
+    <t>제 64기</t>
+  </si>
+  <si>
+    <t>자                         산</t>
+  </si>
+  <si>
+    <t>I. 현금 및 예치금</t>
+  </si>
+  <si>
+    <t>456,127,659,420</t>
+  </si>
+  <si>
+    <t>192,929,724,361</t>
+  </si>
+  <si>
+    <t>142,813,110,252</t>
+  </si>
+  <si>
+    <t>1. 현금및현금성자산</t>
+  </si>
+  <si>
+    <t>396,545,701,904</t>
+  </si>
+  <si>
+    <t>164,742,454,046</t>
+  </si>
+  <si>
+    <t>79,652,863,922</t>
+  </si>
+  <si>
+    <t>2. 예치금</t>
+  </si>
+  <si>
+    <t>59,581,957,516</t>
+  </si>
+  <si>
+    <t>28,187,270,315</t>
+  </si>
+  <si>
+    <t>63,160,246,330</t>
+  </si>
+  <si>
+    <t>II. 당기손익인식금융자산</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4,372,545,960,724</t>
+  </si>
+  <si>
+    <t>3,676,753,487,205</t>
+  </si>
+  <si>
+    <t>1. 단기매매금융자산</t>
+  </si>
+  <si>
+    <t>3,827,433,608,037</t>
+  </si>
+  <si>
+    <t>3,359,054,855,474</t>
+  </si>
+  <si>
+    <t>2. 당기손익인식지정금융자산</t>
+  </si>
+  <si>
+    <t>545,112,352,687</t>
+  </si>
+  <si>
+    <t>317,698,631,731</t>
+  </si>
+  <si>
+    <t>III. 당기손익-공정가치측정 금융자산</t>
+  </si>
+  <si>
+    <t>4,244,201,676,645</t>
+  </si>
+  <si>
+    <t>1. 당기손익-공정가치측정금융자산</t>
+  </si>
+  <si>
+    <t>3,870,234,611,430</t>
+  </si>
+  <si>
+    <t>2. 당기손익-공정가치인식지정금융자산</t>
+  </si>
+  <si>
+    <t>373,967,065,215</t>
+  </si>
+  <si>
+    <t>IV. 매도가능금융자산</t>
+  </si>
+  <si>
+    <t>196,393,904,020</t>
+  </si>
+  <si>
+    <t>203,555,075,088</t>
+  </si>
+  <si>
+    <t>1. 주식</t>
+  </si>
+  <si>
+    <t>148,448,530,087</t>
+  </si>
+  <si>
+    <t>169,910,207,196</t>
+  </si>
+  <si>
+    <t>2. 출자금</t>
+  </si>
+  <si>
+    <t>29,974,992,792</t>
+  </si>
+  <si>
+    <t>17,004,763,203</t>
+  </si>
+  <si>
+    <t>3. 집합투자증권</t>
+  </si>
+  <si>
+    <t>16,852,171,021</t>
+  </si>
+  <si>
+    <t>15,720,674,819</t>
+  </si>
+  <si>
+    <t>4. 기타</t>
+  </si>
+  <si>
+    <t>1,118,210,120</t>
+  </si>
+  <si>
+    <t>919,429,870</t>
+  </si>
+  <si>
+    <t>V. 기타포괄손익-공정가치측정금융자산</t>
+  </si>
+  <si>
+    <t>139,480,967,804</t>
+  </si>
+  <si>
+    <t>VI. 종속기업및관계기업투자자산</t>
+  </si>
+  <si>
+    <t>70,163,166,657</t>
+  </si>
+  <si>
+    <t>66,663,166,657</t>
+  </si>
+  <si>
+    <t>82,355,220,107</t>
+  </si>
+  <si>
+    <t>1. 연결대상회사투자자산</t>
+  </si>
+  <si>
+    <t>66,358,837,809</t>
+  </si>
+  <si>
+    <t>62,858,837,809</t>
+  </si>
+  <si>
+    <t>78,550,891,259</t>
+  </si>
+  <si>
+    <t>2. 관계기업투자자산</t>
+  </si>
+  <si>
+    <t>3,804,328,848</t>
+  </si>
+  <si>
+    <t>VII. 파생상품자산</t>
+  </si>
+  <si>
+    <t>15,021,428,523</t>
+  </si>
+  <si>
+    <t>20,134,730,021</t>
+  </si>
+  <si>
+    <t>28,638,877,947</t>
+  </si>
+  <si>
+    <t>1. 신주인수권증서</t>
+  </si>
+  <si>
+    <t>1,485,498,369</t>
+  </si>
+  <si>
+    <t>3,335,534,523</t>
+  </si>
+  <si>
+    <t>322,489,170</t>
+  </si>
+  <si>
+    <t>2. 장외파생상품자산</t>
+  </si>
+  <si>
+    <t>13,535,930,154</t>
+  </si>
+  <si>
+    <t>16,799,195,498</t>
+  </si>
+  <si>
+    <t>28,316,388,777</t>
+  </si>
+  <si>
+    <t>VIII. 대 출 채 권</t>
+  </si>
+  <si>
+    <t>923,913,991,816</t>
+  </si>
+  <si>
+    <t>676,252,537,064</t>
+  </si>
+  <si>
+    <t>1. 신용공여금</t>
+  </si>
+  <si>
+    <t>640,359,700,037</t>
+  </si>
+  <si>
+    <t>521,933,271,522</t>
+  </si>
+  <si>
+    <t>2. 환매조건부매수</t>
+  </si>
+  <si>
+    <t>211,800,000,000</t>
+  </si>
+  <si>
+    <t>50,000,000,000</t>
+  </si>
+  <si>
+    <t>3. 대여금</t>
+  </si>
+  <si>
+    <t>1,859,507,850</t>
+  </si>
+  <si>
+    <t>2,188,616,195</t>
+  </si>
+  <si>
+    <t>4. 매입대출채권</t>
+  </si>
+  <si>
+    <t>108,310,222,513</t>
+  </si>
+  <si>
+    <t>115,853,844,976</t>
+  </si>
+  <si>
+    <t>대손충당금</t>
+  </si>
+  <si>
+    <t>(59,605,942,808)</t>
+  </si>
+  <si>
+    <t>(64,877,280,913)</t>
+  </si>
+  <si>
+    <t>5. 대지급금</t>
+  </si>
+  <si>
+    <t>11,865,296,744</t>
+  </si>
+  <si>
+    <t>13,424,011,635</t>
+  </si>
+  <si>
+    <t>(11,768,463,269)</t>
+  </si>
+  <si>
+    <t>(13,154,488,692)</t>
+  </si>
+  <si>
+    <t>6. 부도채권</t>
+  </si>
+  <si>
+    <t>10,767,016,000</t>
+  </si>
+  <si>
+    <t>29,247,056,697</t>
+  </si>
+  <si>
+    <t>(10,767,016,000)</t>
+  </si>
+  <si>
+    <t>(22,551,056,697)</t>
+  </si>
+  <si>
+    <t>7. 사모사채</t>
+  </si>
+  <si>
+    <t>17,380,835,352</t>
+  </si>
+  <si>
+    <t>23,564,701,181</t>
+  </si>
+  <si>
+    <t>8. 기타대출채권</t>
+  </si>
+  <si>
+    <t>8,837,835,397</t>
+  </si>
+  <si>
+    <t>25,748,861,160</t>
+  </si>
+  <si>
+    <t>(5,125,000,000)</t>
+  </si>
+  <si>
+    <t>IX. 상각후원가측정대출채권</t>
+  </si>
+  <si>
+    <t>809,115,671,145</t>
+  </si>
+  <si>
+    <t>612,456,741,848</t>
+  </si>
+  <si>
+    <t>140,500,000,000</t>
+  </si>
+  <si>
+    <t>1,711,702,990</t>
+  </si>
+  <si>
+    <t>(57,715,105,730)</t>
+  </si>
+  <si>
+    <t>977,089,143</t>
+  </si>
+  <si>
+    <t>(931,053,816)</t>
+  </si>
+  <si>
+    <t>7. 기타대출채권</t>
+  </si>
+  <si>
+    <t>8,931,074,197</t>
+  </si>
+  <si>
+    <t>X. 유 형 자 산</t>
+  </si>
+  <si>
+    <t>28,047,281,493</t>
+  </si>
+  <si>
+    <t>28,115,298,421</t>
+  </si>
+  <si>
+    <t>29,962,956,165</t>
+  </si>
+  <si>
+    <t>1. 토지</t>
+  </si>
+  <si>
+    <t>11,097,308,279</t>
+  </si>
+  <si>
+    <t>11,126,412,335</t>
+  </si>
+  <si>
+    <t>2. 건물</t>
+  </si>
+  <si>
+    <t>12,982,944,723</t>
+  </si>
+  <si>
+    <t>감가상각누계액</t>
+  </si>
+  <si>
+    <t>(4,090,911,807)</t>
+  </si>
+  <si>
+    <t>(3,831,252,963)</t>
+  </si>
+  <si>
+    <t>(3,571,594,119)</t>
+  </si>
+  <si>
+    <t>3. 차량운반구</t>
+  </si>
+  <si>
+    <t>203,747,920</t>
+  </si>
+  <si>
+    <t>133,566,120</t>
+  </si>
+  <si>
+    <t>(151,106,560)</t>
+  </si>
+  <si>
+    <t>(133,561,120)</t>
+  </si>
+  <si>
+    <t>4. 비품</t>
+  </si>
+  <si>
+    <t>46,072,988,754</t>
+  </si>
+  <si>
+    <t>42,906,639,492</t>
+  </si>
+  <si>
+    <t>41,718,030,720</t>
+  </si>
+  <si>
+    <t>(38,067,689,816)</t>
+  </si>
+  <si>
+    <t>(35,069,450,166)</t>
+  </si>
+  <si>
+    <t>(32,292,842,494)</t>
+  </si>
+  <si>
+    <t>XI. 기 타 자 산</t>
+  </si>
+  <si>
+    <t>727,833,842,415</t>
+  </si>
+  <si>
+    <t>910,854,078,561</t>
+  </si>
+  <si>
+    <t>477,372,962,736</t>
+  </si>
+  <si>
+    <t>1. 증권미수금</t>
+  </si>
+  <si>
+    <t>2,968,632,407</t>
+  </si>
+  <si>
+    <t>2,916,517,782</t>
+  </si>
+  <si>
+    <t>1,827,141,060</t>
+  </si>
+  <si>
+    <t>(26,328,008)</t>
+  </si>
+  <si>
+    <t>(24,375,638)</t>
+  </si>
+  <si>
+    <t>(131,505,431)</t>
+  </si>
+  <si>
+    <t>2. 기타미수금</t>
+  </si>
+  <si>
+    <t>559,288,652,450</t>
+  </si>
+  <si>
+    <t>745,419,852,848</t>
+  </si>
+  <si>
+    <t>334,861,898,887</t>
+  </si>
+  <si>
+    <t>(4,290,518,952)</t>
+  </si>
+  <si>
+    <t>(4,270,192,845)</t>
+  </si>
+  <si>
+    <t>(5,690,808,744)</t>
+  </si>
+  <si>
+    <t>3. 미수수익</t>
+  </si>
+  <si>
+    <t>40,758,582,765</t>
+  </si>
+  <si>
+    <t>32,358,579,691</t>
+  </si>
+  <si>
+    <t>22,047,077,276</t>
+  </si>
+  <si>
+    <t>(543,325,741)</t>
+  </si>
+  <si>
+    <t>(543,245,287)</t>
+  </si>
+  <si>
+    <t>(578,673,402)</t>
+  </si>
+  <si>
+    <t>4. 선급금</t>
+  </si>
+  <si>
+    <t>73,181,820,512</t>
+  </si>
+  <si>
+    <t>71,059,357,859</t>
+  </si>
+  <si>
+    <t>54,354,780,715</t>
+  </si>
+  <si>
+    <t>5. 선급비용</t>
+  </si>
+  <si>
+    <t>2,793,831,049</t>
+  </si>
+  <si>
+    <t>2,270,002,244</t>
+  </si>
+  <si>
+    <t>2,953,489,960</t>
+  </si>
+  <si>
+    <t>6. 미수법인세환급액</t>
+  </si>
+  <si>
+    <t>5,705,075,048</t>
+  </si>
+  <si>
+    <t>10,423,440,390</t>
+  </si>
+  <si>
+    <t>7. 보증금</t>
+  </si>
+  <si>
+    <t>9,983,739,793</t>
+  </si>
+  <si>
+    <t>10,082,482,439</t>
+  </si>
+  <si>
+    <t>9,990,973,644</t>
+  </si>
+  <si>
+    <t>8. 투자부동산</t>
+  </si>
+  <si>
+    <t>16,189,629,502</t>
+  </si>
+  <si>
+    <t>16,287,993,574</t>
+  </si>
+  <si>
+    <t>16,386,357,646</t>
+  </si>
+  <si>
+    <t>9. 기타의 투자자산</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <t>10. 무형자산</t>
+  </si>
+  <si>
+    <t>27,527,126,638</t>
+  </si>
+  <si>
+    <t>29,590,030,846</t>
+  </si>
+  <si>
+    <t>30,926,790,735</t>
+  </si>
+  <si>
+    <t>자       산       총       계</t>
+  </si>
+  <si>
+    <t>6,489,991,694,102</t>
+  </si>
+  <si>
+    <t>6,711,550,854,581</t>
+  </si>
+  <si>
+    <t>5,317,704,226,564</t>
+  </si>
+  <si>
+    <t>부                         채</t>
+  </si>
+  <si>
+    <t>I. 예 수 부 채</t>
+  </si>
+  <si>
+    <t>471,016,174,909</t>
+  </si>
+  <si>
+    <t>618,747,758,462</t>
+  </si>
+  <si>
+    <t>392,217,048,843</t>
+  </si>
+  <si>
+    <t>1. 투자자예수금</t>
+  </si>
+  <si>
+    <t>462,465,841,980</t>
+  </si>
+  <si>
+    <t>612,843,774,844</t>
+  </si>
+  <si>
+    <t>388,354,187,394</t>
+  </si>
+  <si>
+    <t>2. 수입담보금</t>
+  </si>
+  <si>
+    <t>7,073,510,641</t>
+  </si>
+  <si>
+    <t>4,983,311,899</t>
+  </si>
+  <si>
+    <t>1,917,309,255</t>
+  </si>
+  <si>
+    <t>3. 기타예수금</t>
+  </si>
+  <si>
+    <t>1,476,822,288</t>
+  </si>
+  <si>
+    <t>920,671,719</t>
+  </si>
+  <si>
+    <t>1,945,552,194</t>
+  </si>
+  <si>
+    <t>II. 당기손익인식금융부채</t>
+  </si>
+  <si>
+    <t>1,424,845,956,026</t>
+  </si>
+  <si>
+    <t>1,158,404,529,451</t>
+  </si>
+  <si>
+    <t>1. 단기매매금융부채</t>
+  </si>
+  <si>
+    <t>631,070,156,942</t>
+  </si>
+  <si>
+    <t>508,261,383,758</t>
+  </si>
+  <si>
+    <t>2. 당기손익인식지정금융부채</t>
+  </si>
+  <si>
+    <t>793,775,799,084</t>
+  </si>
+  <si>
+    <t>650,143,145,693</t>
+  </si>
+  <si>
+    <t>III. 당기손익-공정가치측정금융부채</t>
+  </si>
+  <si>
+    <t>2,042,576,047,798</t>
+  </si>
+  <si>
+    <t>1. 당기손익-공정가치측정금융부채</t>
+  </si>
+  <si>
+    <t>1,207,211,578,263</t>
+  </si>
+  <si>
+    <t>2. 당기손익-공정가치인식지정금융부채</t>
+  </si>
+  <si>
+    <t>835,364,469,535</t>
+  </si>
+  <si>
+    <t>IV. 차 입 부 채</t>
+  </si>
+  <si>
+    <t>2,599,769,829,239</t>
+  </si>
+  <si>
+    <t>3,180,393,175,838</t>
+  </si>
+  <si>
+    <t>2,739,624,290,274</t>
+  </si>
+  <si>
+    <t>1. 콜머니</t>
+  </si>
+  <si>
+    <t>140,000,000,000</t>
+  </si>
+  <si>
+    <t>30,000,000,000</t>
+  </si>
+  <si>
+    <t>2. 차입금</t>
+  </si>
+  <si>
+    <t>721,099,578,534</t>
+  </si>
+  <si>
+    <t>974,029,729,951</t>
+  </si>
+  <si>
+    <t>716,150,924,795</t>
+  </si>
+  <si>
+    <t>3. 환매조건부매도</t>
+  </si>
+  <si>
+    <t>1,708,670,250,705</t>
+  </si>
+  <si>
+    <t>2,124,366,642,318</t>
+  </si>
+  <si>
+    <t>2,001,491,944,718</t>
+  </si>
+  <si>
+    <t>4. 후순위사채</t>
+  </si>
+  <si>
+    <t>52,000,000,000</t>
+  </si>
+  <si>
+    <t>22,000,000,000</t>
+  </si>
+  <si>
+    <t>사채할인발행차금</t>
+  </si>
+  <si>
+    <t>(3,196,431)</t>
+  </si>
+  <si>
+    <t>(18,579,239)</t>
+  </si>
+  <si>
+    <t>V. 파생상품부채</t>
+  </si>
+  <si>
+    <t>18,228,726,132</t>
+  </si>
+  <si>
+    <t>30,023,376,717</t>
+  </si>
+  <si>
+    <t>20,006,952,959</t>
+  </si>
+  <si>
+    <t>1. 장외파생상품부채</t>
+  </si>
+  <si>
+    <t>VI. 기 타 부 채</t>
+  </si>
+  <si>
+    <t>603,520,833,304</t>
+  </si>
+  <si>
+    <t>745,478,463,441</t>
+  </si>
+  <si>
+    <t>348,580,879,298</t>
+  </si>
+  <si>
+    <t>1. 충당부채</t>
+  </si>
+  <si>
+    <t>1,264,994,411</t>
+  </si>
+  <si>
+    <t>1,096,887,012</t>
+  </si>
+  <si>
+    <t>1,064,478,871</t>
+  </si>
+  <si>
+    <t>2. 미지급배당금</t>
+  </si>
+  <si>
+    <t>1,390,520</t>
+  </si>
+  <si>
+    <t>3. 미지급금</t>
+  </si>
+  <si>
+    <t>479,201,788,775</t>
+  </si>
+  <si>
+    <t>662,172,456,620</t>
+  </si>
+  <si>
+    <t>278,507,950,417</t>
+  </si>
+  <si>
+    <t>4. 미지급비용</t>
+  </si>
+  <si>
+    <t>48,461,122,052</t>
+  </si>
+  <si>
+    <t>46,469,617,313</t>
+  </si>
+  <si>
+    <t>40,853,816,241</t>
+  </si>
+  <si>
+    <t>5. 미지급법인세</t>
+  </si>
+  <si>
+    <t>8,725,361,844</t>
+  </si>
+  <si>
+    <t>6. 임대보증금</t>
+  </si>
+  <si>
+    <t>1,082,786,172</t>
+  </si>
+  <si>
+    <t>1,236,869,920</t>
+  </si>
+  <si>
+    <t>1,224,210,449</t>
+  </si>
+  <si>
+    <t>7. 선수수익</t>
+  </si>
+  <si>
+    <t>8,411,593,377</t>
+  </si>
+  <si>
+    <t>7,534,782,358</t>
+  </si>
+  <si>
+    <t>6,162,541,190</t>
+  </si>
+  <si>
+    <t>8. 제세금예수금</t>
+  </si>
+  <si>
+    <t>4,594,120,408</t>
+  </si>
+  <si>
+    <t>5,699,469,510</t>
+  </si>
+  <si>
+    <t>5,756,763,551</t>
+  </si>
+  <si>
+    <t>9. 이연법인세부채</t>
+  </si>
+  <si>
+    <t>18,588,158,403</t>
+  </si>
+  <si>
+    <t>21,266,990,188</t>
+  </si>
+  <si>
+    <t>15,009,728,059</t>
+  </si>
+  <si>
+    <t>10. 금융보증부채</t>
+  </si>
+  <si>
+    <t>33,189,517,342</t>
+  </si>
+  <si>
+    <t>부       채       총       계</t>
+  </si>
+  <si>
+    <t>5,735,111,611,382</t>
+  </si>
+  <si>
+    <t>5,999,488,730,484</t>
+  </si>
+  <si>
+    <t>4,658,833,700,825</t>
+  </si>
+  <si>
+    <t>자                         본</t>
+  </si>
+  <si>
+    <t>I. 자 본 금</t>
+  </si>
+  <si>
+    <t>537,592,090,000</t>
+  </si>
+  <si>
+    <t>1. 보통주자본금</t>
+  </si>
+  <si>
+    <t>II. 자 본 잉 여 금</t>
+  </si>
+  <si>
+    <t>1,327,430,780</t>
+  </si>
+  <si>
+    <t>1. 기타자본잉여금</t>
+  </si>
+  <si>
+    <t>III. 자 본 조 정</t>
+  </si>
+  <si>
+    <t>(67,490,021,803)</t>
+  </si>
+  <si>
+    <t>1. 주식할인발행차금</t>
+  </si>
+  <si>
+    <t>(67,190,907,390)</t>
+  </si>
+  <si>
+    <t>2. 자기주식</t>
+  </si>
+  <si>
+    <t>(299,114,138)</t>
+  </si>
+  <si>
+    <t>3. 기타자본조정</t>
+  </si>
+  <si>
+    <t>(275)</t>
+  </si>
+  <si>
+    <t>IV. 기 타 포 괄 손 익 누 계 액</t>
+  </si>
+  <si>
+    <t>75,750,686,034</t>
+  </si>
+  <si>
+    <t>75,105,727,638</t>
+  </si>
+  <si>
+    <t>86,865,316,083</t>
+  </si>
+  <si>
+    <t>1. 매도가능금융자산평가이익</t>
+  </si>
+  <si>
+    <t>2. 기타포괄손익-공정가치측정금융자산평가손익</t>
+  </si>
+  <si>
+    <t>75,437,027,462</t>
+  </si>
+  <si>
+    <t>3. 당기손익-공정가치측정항목지정금융부채신용위험</t>
+  </si>
+  <si>
+    <t>313,658,572</t>
+  </si>
+  <si>
+    <t>V. 이익잉여금</t>
+  </si>
+  <si>
+    <t>207,699,897,709</t>
+  </si>
+  <si>
+    <t>165,526,897,482</t>
+  </si>
+  <si>
+    <t>100,575,710,679</t>
+  </si>
+  <si>
+    <t>1. 임의적립금</t>
+  </si>
+  <si>
+    <t>1,000,000,000</t>
+  </si>
+  <si>
+    <t>2. 대손준비금</t>
+  </si>
+  <si>
+    <t>1,070,582,726</t>
+  </si>
+  <si>
+    <t>3. 미처분이익잉여금</t>
+  </si>
+  <si>
+    <t>205,629,314,983</t>
+  </si>
+  <si>
+    <t>164,526,897,482</t>
+  </si>
+  <si>
+    <t>99,575,710,679</t>
+  </si>
+  <si>
+    <t>자       본       총       계</t>
+  </si>
+  <si>
+    <t>754,880,082,720</t>
+  </si>
+  <si>
+    <t>712,062,124,097</t>
+  </si>
+  <si>
+    <t>658,870,525,739</t>
+  </si>
+  <si>
+    <t>부   채   와  자   본   총   계</t>
+  </si>
+  <si>
     <t>과                        목</t>
-  </si>
-  <si>
-    <t>제 66기</t>
-  </si>
-  <si>
-    <t>제 65기</t>
-  </si>
-  <si>
-    <t>제 64기</t>
-  </si>
-  <si>
-    <t>자                         산</t>
-  </si>
-  <si>
-    <t>I. 현금 및 예치금</t>
-  </si>
-  <si>
-    <t>456,127,659,420</t>
-  </si>
-  <si>
-    <t>192,929,724,361</t>
-  </si>
-  <si>
-    <t>142,813,110,252</t>
-  </si>
-  <si>
-    <t>1. 현금및현금성자산</t>
-  </si>
-  <si>
-    <t>396,545,701,904</t>
-  </si>
-  <si>
-    <t>164,742,454,046</t>
-  </si>
-  <si>
-    <t>79,652,863,922</t>
-  </si>
-  <si>
-    <t>2. 예치금</t>
-  </si>
-  <si>
-    <t>59,581,957,516</t>
-  </si>
-  <si>
-    <t>28,187,270,315</t>
-  </si>
-  <si>
-    <t>63,160,246,330</t>
-  </si>
-  <si>
-    <t>II. 당기손익인식금융자산</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4,372,545,960,724</t>
-  </si>
-  <si>
-    <t>3,676,753,487,205</t>
-  </si>
-  <si>
-    <t>1. 단기매매금융자산</t>
-  </si>
-  <si>
-    <t>3,827,433,608,037</t>
-  </si>
-  <si>
-    <t>3,359,054,855,474</t>
-  </si>
-  <si>
-    <t>2. 당기손익인식지정금융자산</t>
-  </si>
-  <si>
-    <t>545,112,352,687</t>
-  </si>
-  <si>
-    <t>317,698,631,731</t>
-  </si>
-  <si>
-    <t>III. 당기손익-공정가치측정 금융자산</t>
-  </si>
-  <si>
-    <t>4,244,201,676,645</t>
-  </si>
-  <si>
-    <t>1. 당기손익-공정가치측정금융자산</t>
-  </si>
-  <si>
-    <t>3,870,234,611,430</t>
-  </si>
-  <si>
-    <t>2. 당기손익-공정가치인식지정금융자산</t>
-  </si>
-  <si>
-    <t>373,967,065,215</t>
-  </si>
-  <si>
-    <t>IV. 매도가능금융자산</t>
-  </si>
-  <si>
-    <t>196,393,904,020</t>
-  </si>
-  <si>
-    <t>203,555,075,088</t>
-  </si>
-  <si>
-    <t>1. 주식</t>
-  </si>
-  <si>
-    <t>148,448,530,087</t>
-  </si>
-  <si>
-    <t>169,910,207,196</t>
-  </si>
-  <si>
-    <t>2. 출자금</t>
-  </si>
-  <si>
-    <t>29,974,992,792</t>
-  </si>
-  <si>
-    <t>17,004,763,203</t>
-  </si>
-  <si>
-    <t>3. 집합투자증권</t>
-  </si>
-  <si>
-    <t>16,852,171,021</t>
-  </si>
-  <si>
-    <t>15,720,674,819</t>
-  </si>
-  <si>
-    <t>4. 기타</t>
-  </si>
-  <si>
-    <t>1,118,210,120</t>
-  </si>
-  <si>
-    <t>919,429,870</t>
-  </si>
-  <si>
-    <t>V. 기타포괄손익-공정가치측정금융자산</t>
-  </si>
-  <si>
-    <t>139,480,967,804</t>
-  </si>
-  <si>
-    <t>VI. 종속기업및관계기업투자자산</t>
-  </si>
-  <si>
-    <t>70,163,166,657</t>
-  </si>
-  <si>
-    <t>66,663,166,657</t>
-  </si>
-  <si>
-    <t>82,355,220,107</t>
-  </si>
-  <si>
-    <t>1. 연결대상회사투자자산</t>
-  </si>
-  <si>
-    <t>66,358,837,809</t>
-  </si>
-  <si>
-    <t>62,858,837,809</t>
-  </si>
-  <si>
-    <t>78,550,891,259</t>
-  </si>
-  <si>
-    <t>2. 관계기업투자자산</t>
-  </si>
-  <si>
-    <t>3,804,328,848</t>
-  </si>
-  <si>
-    <t>VII. 파생상품자산</t>
-  </si>
-  <si>
-    <t>15,021,428,523</t>
-  </si>
-  <si>
-    <t>20,134,730,021</t>
-  </si>
-  <si>
-    <t>28,638,877,947</t>
-  </si>
-  <si>
-    <t>1. 신주인수권증서</t>
-  </si>
-  <si>
-    <t>1,485,498,369</t>
-  </si>
-  <si>
-    <t>3,335,534,523</t>
-  </si>
-  <si>
-    <t>322,489,170</t>
-  </si>
-  <si>
-    <t>2. 장외파생상품자산</t>
-  </si>
-  <si>
-    <t>13,535,930,154</t>
-  </si>
-  <si>
-    <t>16,799,195,498</t>
-  </si>
-  <si>
-    <t>28,316,388,777</t>
-  </si>
-  <si>
-    <t>VIII. 대 출 채 권</t>
-  </si>
-  <si>
-    <t>923,913,991,816</t>
-  </si>
-  <si>
-    <t>676,252,537,064</t>
-  </si>
-  <si>
-    <t>1. 신용공여금</t>
-  </si>
-  <si>
-    <t>640,359,700,037</t>
-  </si>
-  <si>
-    <t>521,933,271,522</t>
-  </si>
-  <si>
-    <t>2. 환매조건부매수</t>
-  </si>
-  <si>
-    <t>211,800,000,000</t>
-  </si>
-  <si>
-    <t>50,000,000,000</t>
-  </si>
-  <si>
-    <t>3. 대여금</t>
-  </si>
-  <si>
-    <t>1,859,507,850</t>
-  </si>
-  <si>
-    <t>2,188,616,195</t>
-  </si>
-  <si>
-    <t>4. 매입대출채권</t>
-  </si>
-  <si>
-    <t>108,310,222,513</t>
-  </si>
-  <si>
-    <t>115,853,844,976</t>
-  </si>
-  <si>
-    <t>대손충당금</t>
-  </si>
-  <si>
-    <t>(59,605,942,808)</t>
-  </si>
-  <si>
-    <t>(64,877,280,913)</t>
-  </si>
-  <si>
-    <t>5. 대지급금</t>
-  </si>
-  <si>
-    <t>11,865,296,744</t>
-  </si>
-  <si>
-    <t>13,424,011,635</t>
-  </si>
-  <si>
-    <t>(11,768,463,269)</t>
-  </si>
-  <si>
-    <t>(13,154,488,692)</t>
-  </si>
-  <si>
-    <t>6. 부도채권</t>
-  </si>
-  <si>
-    <t>10,767,016,000</t>
-  </si>
-  <si>
-    <t>29,247,056,697</t>
-  </si>
-  <si>
-    <t>(10,767,016,000)</t>
-  </si>
-  <si>
-    <t>(22,551,056,697)</t>
-  </si>
-  <si>
-    <t>7. 사모사채</t>
-  </si>
-  <si>
-    <t>17,380,835,352</t>
-  </si>
-  <si>
-    <t>23,564,701,181</t>
-  </si>
-  <si>
-    <t>8. 기타대출채권</t>
-  </si>
-  <si>
-    <t>8,837,835,397</t>
-  </si>
-  <si>
-    <t>25,748,861,160</t>
-  </si>
-  <si>
-    <t>(5,125,000,000)</t>
-  </si>
-  <si>
-    <t>IX. 상각후원가측정대출채권</t>
-  </si>
-  <si>
-    <t>809,115,671,145</t>
-  </si>
-  <si>
-    <t>612,456,741,848</t>
-  </si>
-  <si>
-    <t>140,500,000,000</t>
-  </si>
-  <si>
-    <t>1,711,702,990</t>
-  </si>
-  <si>
-    <t>(57,715,105,730)</t>
-  </si>
-  <si>
-    <t>977,089,143</t>
-  </si>
-  <si>
-    <t>(931,053,816)</t>
-  </si>
-  <si>
-    <t>7. 기타대출채권</t>
-  </si>
-  <si>
-    <t>8,931,074,197</t>
-  </si>
-  <si>
-    <t>X. 유 형 자 산</t>
-  </si>
-  <si>
-    <t>28,047,281,493</t>
-  </si>
-  <si>
-    <t>28,115,298,421</t>
-  </si>
-  <si>
-    <t>29,962,956,165</t>
-  </si>
-  <si>
-    <t>1. 토지</t>
-  </si>
-  <si>
-    <t>11,097,308,279</t>
-  </si>
-  <si>
-    <t>11,126,412,335</t>
-  </si>
-  <si>
-    <t>2. 건물</t>
-  </si>
-  <si>
-    <t>12,982,944,723</t>
-  </si>
-  <si>
-    <t>감가상각누계액</t>
-  </si>
-  <si>
-    <t>(4,090,911,807)</t>
-  </si>
-  <si>
-    <t>(3,831,252,963)</t>
-  </si>
-  <si>
-    <t>(3,571,594,119)</t>
-  </si>
-  <si>
-    <t>3. 차량운반구</t>
-  </si>
-  <si>
-    <t>203,747,920</t>
-  </si>
-  <si>
-    <t>133,566,120</t>
-  </si>
-  <si>
-    <t>(151,106,560)</t>
-  </si>
-  <si>
-    <t>(133,561,120)</t>
-  </si>
-  <si>
-    <t>4. 비품</t>
-  </si>
-  <si>
-    <t>46,072,988,754</t>
-  </si>
-  <si>
-    <t>42,906,639,492</t>
-  </si>
-  <si>
-    <t>41,718,030,720</t>
-  </si>
-  <si>
-    <t>(38,067,689,816)</t>
-  </si>
-  <si>
-    <t>(35,069,450,166)</t>
-  </si>
-  <si>
-    <t>(32,292,842,494)</t>
-  </si>
-  <si>
-    <t>XI. 기 타 자 산</t>
-  </si>
-  <si>
-    <t>727,833,842,415</t>
-  </si>
-  <si>
-    <t>910,854,078,561</t>
-  </si>
-  <si>
-    <t>477,372,962,736</t>
-  </si>
-  <si>
-    <t>1. 증권미수금</t>
-  </si>
-  <si>
-    <t>2,968,632,407</t>
-  </si>
-  <si>
-    <t>2,916,517,782</t>
-  </si>
-  <si>
-    <t>1,827,141,060</t>
-  </si>
-  <si>
-    <t>(26,328,008)</t>
-  </si>
-  <si>
-    <t>(24,375,638)</t>
-  </si>
-  <si>
-    <t>(131,505,431)</t>
-  </si>
-  <si>
-    <t>2. 기타미수금</t>
-  </si>
-  <si>
-    <t>559,288,652,450</t>
-  </si>
-  <si>
-    <t>745,419,852,848</t>
-  </si>
-  <si>
-    <t>334,861,898,887</t>
-  </si>
-  <si>
-    <t>(4,290,518,952)</t>
-  </si>
-  <si>
-    <t>(4,270,192,845)</t>
-  </si>
-  <si>
-    <t>(5,690,808,744)</t>
-  </si>
-  <si>
-    <t>3. 미수수익</t>
-  </si>
-  <si>
-    <t>40,758,582,765</t>
-  </si>
-  <si>
-    <t>32,358,579,691</t>
-  </si>
-  <si>
-    <t>22,047,077,276</t>
-  </si>
-  <si>
-    <t>(543,325,741)</t>
-  </si>
-  <si>
-    <t>(543,245,287)</t>
-  </si>
-  <si>
-    <t>(578,673,402)</t>
-  </si>
-  <si>
-    <t>4. 선급금</t>
-  </si>
-  <si>
-    <t>73,181,820,512</t>
-  </si>
-  <si>
-    <t>71,059,357,859</t>
-  </si>
-  <si>
-    <t>54,354,780,715</t>
-  </si>
-  <si>
-    <t>5. 선급비용</t>
-  </si>
-  <si>
-    <t>2,793,831,049</t>
-  </si>
-  <si>
-    <t>2,270,002,244</t>
-  </si>
-  <si>
-    <t>2,953,489,960</t>
-  </si>
-  <si>
-    <t>6. 미수법인세환급액</t>
-  </si>
-  <si>
-    <t>5,705,075,048</t>
-  </si>
-  <si>
-    <t>10,423,440,390</t>
-  </si>
-  <si>
-    <t>7. 보증금</t>
-  </si>
-  <si>
-    <t>9,983,739,793</t>
-  </si>
-  <si>
-    <t>10,082,482,439</t>
-  </si>
-  <si>
-    <t>9,990,973,644</t>
-  </si>
-  <si>
-    <t>8. 투자부동산</t>
-  </si>
-  <si>
-    <t>16,189,629,502</t>
-  </si>
-  <si>
-    <t>16,287,993,574</t>
-  </si>
-  <si>
-    <t>16,386,357,646</t>
-  </si>
-  <si>
-    <t>9. 기타의 투자자산</t>
-  </si>
-  <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
-    <t>10. 무형자산</t>
-  </si>
-  <si>
-    <t>27,527,126,638</t>
-  </si>
-  <si>
-    <t>29,590,030,846</t>
-  </si>
-  <si>
-    <t>30,926,790,735</t>
-  </si>
-  <si>
-    <t>자       산       총       계</t>
-  </si>
-  <si>
-    <t>6,489,991,694,102</t>
-  </si>
-  <si>
-    <t>6,711,550,854,581</t>
-  </si>
-  <si>
-    <t>5,317,704,226,564</t>
-  </si>
-  <si>
-    <t>부                         채</t>
-  </si>
-  <si>
-    <t>I. 예 수 부 채</t>
-  </si>
-  <si>
-    <t>471,016,174,909</t>
-  </si>
-  <si>
-    <t>618,747,758,462</t>
-  </si>
-  <si>
-    <t>392,217,048,843</t>
-  </si>
-  <si>
-    <t>1. 투자자예수금</t>
-  </si>
-  <si>
-    <t>462,465,841,980</t>
-  </si>
-  <si>
-    <t>612,843,774,844</t>
-  </si>
-  <si>
-    <t>388,354,187,394</t>
-  </si>
-  <si>
-    <t>2. 수입담보금</t>
-  </si>
-  <si>
-    <t>7,073,510,641</t>
-  </si>
-  <si>
-    <t>4,983,311,899</t>
-  </si>
-  <si>
-    <t>1,917,309,255</t>
-  </si>
-  <si>
-    <t>3. 기타예수금</t>
-  </si>
-  <si>
-    <t>1,476,822,288</t>
-  </si>
-  <si>
-    <t>920,671,719</t>
-  </si>
-  <si>
-    <t>1,945,552,194</t>
-  </si>
-  <si>
-    <t>II. 당기손익인식금융부채</t>
-  </si>
-  <si>
-    <t>1,424,845,956,026</t>
-  </si>
-  <si>
-    <t>1,158,404,529,451</t>
-  </si>
-  <si>
-    <t>1. 단기매매금융부채</t>
-  </si>
-  <si>
-    <t>631,070,156,942</t>
-  </si>
-  <si>
-    <t>508,261,383,758</t>
-  </si>
-  <si>
-    <t>2. 당기손익인식지정금융부채</t>
-  </si>
-  <si>
-    <t>793,775,799,084</t>
-  </si>
-  <si>
-    <t>650,143,145,693</t>
-  </si>
-  <si>
-    <t>III. 당기손익-공정가치측정금융부채</t>
-  </si>
-  <si>
-    <t>2,042,576,047,798</t>
-  </si>
-  <si>
-    <t>1. 당기손익-공정가치측정금융부채</t>
-  </si>
-  <si>
-    <t>1,207,211,578,263</t>
-  </si>
-  <si>
-    <t>2. 당기손익-공정가치인식지정금융부채</t>
-  </si>
-  <si>
-    <t>835,364,469,535</t>
-  </si>
-  <si>
-    <t>IV. 차 입 부 채</t>
-  </si>
-  <si>
-    <t>2,599,769,829,239</t>
-  </si>
-  <si>
-    <t>3,180,393,175,838</t>
-  </si>
-  <si>
-    <t>2,739,624,290,274</t>
-  </si>
-  <si>
-    <t>1. 콜머니</t>
-  </si>
-  <si>
-    <t>140,000,000,000</t>
-  </si>
-  <si>
-    <t>30,000,000,000</t>
-  </si>
-  <si>
-    <t>2. 차입금</t>
-  </si>
-  <si>
-    <t>721,099,578,534</t>
-  </si>
-  <si>
-    <t>974,029,729,951</t>
-  </si>
-  <si>
-    <t>716,150,924,795</t>
-  </si>
-  <si>
-    <t>3. 환매조건부매도</t>
-  </si>
-  <si>
-    <t>1,708,670,250,705</t>
-  </si>
-  <si>
-    <t>2,124,366,642,318</t>
-  </si>
-  <si>
-    <t>2,001,491,944,718</t>
-  </si>
-  <si>
-    <t>4. 후순위사채</t>
-  </si>
-  <si>
-    <t>52,000,000,000</t>
-  </si>
-  <si>
-    <t>22,000,000,000</t>
-  </si>
-  <si>
-    <t>사채할인발행차금</t>
-  </si>
-  <si>
-    <t>(3,196,431)</t>
-  </si>
-  <si>
-    <t>(18,579,239)</t>
-  </si>
-  <si>
-    <t>V. 파생상품부채</t>
-  </si>
-  <si>
-    <t>18,228,726,132</t>
-  </si>
-  <si>
-    <t>30,023,376,717</t>
-  </si>
-  <si>
-    <t>20,006,952,959</t>
-  </si>
-  <si>
-    <t>1. 장외파생상품부채</t>
-  </si>
-  <si>
-    <t>VI. 기 타 부 채</t>
-  </si>
-  <si>
-    <t>603,520,833,304</t>
-  </si>
-  <si>
-    <t>745,478,463,441</t>
-  </si>
-  <si>
-    <t>348,580,879,298</t>
-  </si>
-  <si>
-    <t>1. 충당부채</t>
-  </si>
-  <si>
-    <t>1,264,994,411</t>
-  </si>
-  <si>
-    <t>1,096,887,012</t>
-  </si>
-  <si>
-    <t>1,064,478,871</t>
-  </si>
-  <si>
-    <t>2. 미지급배당금</t>
-  </si>
-  <si>
-    <t>1,390,520</t>
-  </si>
-  <si>
-    <t>3. 미지급금</t>
-  </si>
-  <si>
-    <t>479,201,788,775</t>
-  </si>
-  <si>
-    <t>662,172,456,620</t>
-  </si>
-  <si>
-    <t>278,507,950,417</t>
-  </si>
-  <si>
-    <t>4. 미지급비용</t>
-  </si>
-  <si>
-    <t>48,461,122,052</t>
-  </si>
-  <si>
-    <t>46,469,617,313</t>
-  </si>
-  <si>
-    <t>40,853,816,241</t>
-  </si>
-  <si>
-    <t>5. 미지급법인세</t>
-  </si>
-  <si>
-    <t>8,725,361,844</t>
-  </si>
-  <si>
-    <t>6. 임대보증금</t>
-  </si>
-  <si>
-    <t>1,082,786,172</t>
-  </si>
-  <si>
-    <t>1,236,869,920</t>
-  </si>
-  <si>
-    <t>1,224,210,449</t>
-  </si>
-  <si>
-    <t>7. 선수수익</t>
-  </si>
-  <si>
-    <t>8,411,593,377</t>
-  </si>
-  <si>
-    <t>7,534,782,358</t>
-  </si>
-  <si>
-    <t>6,162,541,190</t>
-  </si>
-  <si>
-    <t>8. 제세금예수금</t>
-  </si>
-  <si>
-    <t>4,594,120,408</t>
-  </si>
-  <si>
-    <t>5,699,469,510</t>
-  </si>
-  <si>
-    <t>5,756,763,551</t>
-  </si>
-  <si>
-    <t>9. 이연법인세부채</t>
-  </si>
-  <si>
-    <t>18,588,158,403</t>
-  </si>
-  <si>
-    <t>21,266,990,188</t>
-  </si>
-  <si>
-    <t>15,009,728,059</t>
-  </si>
-  <si>
-    <t>10. 금융보증부채</t>
-  </si>
-  <si>
-    <t>33,189,517,342</t>
-  </si>
-  <si>
-    <t>부       채       총       계</t>
-  </si>
-  <si>
-    <t>5,735,111,611,382</t>
-  </si>
-  <si>
-    <t>5,999,488,730,484</t>
-  </si>
-  <si>
-    <t>4,658,833,700,825</t>
-  </si>
-  <si>
-    <t>자                         본</t>
-  </si>
-  <si>
-    <t>I. 자 본 금</t>
-  </si>
-  <si>
-    <t>537,592,090,000</t>
-  </si>
-  <si>
-    <t>1. 보통주자본금</t>
-  </si>
-  <si>
-    <t>II. 자 본 잉 여 금</t>
-  </si>
-  <si>
-    <t>1,327,430,780</t>
-  </si>
-  <si>
-    <t>1. 기타자본잉여금</t>
-  </si>
-  <si>
-    <t>III. 자 본 조 정</t>
-  </si>
-  <si>
-    <t>(67,490,021,803)</t>
-  </si>
-  <si>
-    <t>1. 주식할인발행차금</t>
-  </si>
-  <si>
-    <t>(67,190,907,390)</t>
-  </si>
-  <si>
-    <t>2. 자기주식</t>
-  </si>
-  <si>
-    <t>(299,114,138)</t>
-  </si>
-  <si>
-    <t>3. 기타자본조정</t>
-  </si>
-  <si>
-    <t>(275)</t>
-  </si>
-  <si>
-    <t>IV. 기 타 포 괄 손 익 누 계 액</t>
-  </si>
-  <si>
-    <t>75,750,686,034</t>
-  </si>
-  <si>
-    <t>75,105,727,638</t>
-  </si>
-  <si>
-    <t>86,865,316,083</t>
-  </si>
-  <si>
-    <t>1. 매도가능금융자산평가이익</t>
-  </si>
-  <si>
-    <t>2. 기타포괄손익-공정가치측정금융자산평가손익</t>
-  </si>
-  <si>
-    <t>75,437,027,462</t>
-  </si>
-  <si>
-    <t>3. 당기손익-공정가치측정항목지정금융부채신용위험</t>
-  </si>
-  <si>
-    <t>313,658,572</t>
-  </si>
-  <si>
-    <t>V. 이익잉여금</t>
-  </si>
-  <si>
-    <t>207,699,897,709</t>
-  </si>
-  <si>
-    <t>165,526,897,482</t>
-  </si>
-  <si>
-    <t>100,575,710,679</t>
-  </si>
-  <si>
-    <t>1. 임의적립금</t>
-  </si>
-  <si>
-    <t>1,000,000,000</t>
-  </si>
-  <si>
-    <t>2. 대손준비금</t>
-  </si>
-  <si>
-    <t>1,070,582,726</t>
-  </si>
-  <si>
-    <t>3. 미처분이익잉여금</t>
-  </si>
-  <si>
-    <t>205,629,314,983</t>
-  </si>
-  <si>
-    <t>164,526,897,482</t>
-  </si>
-  <si>
-    <t>99,575,710,679</t>
-  </si>
-  <si>
-    <t>자       본       총       계</t>
-  </si>
-  <si>
-    <t>754,880,082,720</t>
-  </si>
-  <si>
-    <t>712,062,124,097</t>
-  </si>
-  <si>
-    <t>658,870,525,739</t>
-  </si>
-  <si>
-    <t>부   채   와  자   본   총   계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2389,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3815,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3850,1692 +3851,1692 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3" t="s">
         <v>328</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
         <v>329</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>329</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>330</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>330</v>
-      </c>
-      <c r="G3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" t="s">
         <v>333</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>334</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>335</v>
-      </c>
-      <c r="H5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
         <v>337</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>338</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>339</v>
-      </c>
-      <c r="G6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" t="s">
         <v>341</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>342</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>343</v>
-      </c>
-      <c r="G7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="s">
         <v>346</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>347</v>
-      </c>
-      <c r="H8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" t="s">
         <v>349</v>
       </c>
-      <c r="C9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>350</v>
-      </c>
-      <c r="G9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
         <v>352</v>
       </c>
-      <c r="C10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
-      </c>
-      <c r="G10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
         <v>355</v>
       </c>
-      <c r="D11" t="s">
-        <v>356</v>
-      </c>
       <c r="F11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" t="s">
-        <v>358</v>
-      </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" t="s">
         <v>359</v>
       </c>
-      <c r="C13" t="s">
-        <v>360</v>
-      </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" t="s">
         <v>361</v>
       </c>
-      <c r="D14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>362</v>
-      </c>
-      <c r="H14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" t="s">
         <v>364</v>
       </c>
-      <c r="C15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>365</v>
-      </c>
-      <c r="G15" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" t="s">
         <v>367</v>
       </c>
-      <c r="C16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>368</v>
-      </c>
-      <c r="G16" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
         <v>370</v>
       </c>
-      <c r="C17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>371</v>
-      </c>
-      <c r="G17" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" t="s">
         <v>373</v>
       </c>
-      <c r="C18" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>374</v>
-      </c>
-      <c r="G18" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="s">
         <v>376</v>
       </c>
-      <c r="D19" t="s">
-        <v>377</v>
-      </c>
       <c r="F19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" t="s">
         <v>378</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>379</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>380</v>
-      </c>
-      <c r="H21" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" t="s">
         <v>382</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>383</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>384</v>
-      </c>
-      <c r="G22" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" t="s">
         <v>386</v>
       </c>
-      <c r="C23" t="s">
-        <v>387</v>
-      </c>
       <c r="E23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" t="s">
         <v>388</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>389</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>390</v>
-      </c>
-      <c r="H24" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" t="s">
         <v>392</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>393</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>394</v>
-      </c>
-      <c r="G25" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" t="s">
         <v>396</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>397</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>398</v>
-      </c>
-      <c r="G26" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" t="s">
         <v>400</v>
       </c>
-      <c r="D27" t="s">
-        <v>346</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>401</v>
-      </c>
-      <c r="H27" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" t="s">
         <v>403</v>
       </c>
-      <c r="C28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>404</v>
-      </c>
-      <c r="G28" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" t="s">
         <v>406</v>
       </c>
-      <c r="C29" t="s">
-        <v>346</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>407</v>
-      </c>
-      <c r="G29" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
         <v>409</v>
       </c>
-      <c r="C30" t="s">
-        <v>346</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>410</v>
-      </c>
-      <c r="G30" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
         <v>412</v>
       </c>
-      <c r="C31" t="s">
-        <v>346</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>413</v>
-      </c>
-      <c r="G31" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
         <v>415</v>
       </c>
-      <c r="C32" t="s">
-        <v>346</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>416</v>
-      </c>
-      <c r="G32" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" t="s">
         <v>418</v>
       </c>
-      <c r="C33" t="s">
-        <v>346</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>419</v>
-      </c>
-      <c r="G33" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" t="s">
+        <v>420</v>
+      </c>
+      <c r="G34" t="s">
         <v>421</v>
-      </c>
-      <c r="G34" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" t="s">
         <v>423</v>
       </c>
-      <c r="C35" t="s">
-        <v>346</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>424</v>
-      </c>
-      <c r="G35" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G36" t="s">
         <v>426</v>
-      </c>
-      <c r="G36" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" t="s">
         <v>428</v>
       </c>
-      <c r="C37" t="s">
-        <v>346</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>429</v>
-      </c>
-      <c r="G37" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" t="s">
         <v>431</v>
       </c>
-      <c r="C38" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>432</v>
-      </c>
-      <c r="G38" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" t="s">
         <v>435</v>
       </c>
-      <c r="D40" t="s">
-        <v>436</v>
-      </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" t="s">
         <v>412</v>
       </c>
-      <c r="C44" t="s">
-        <v>413</v>
-      </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C48" t="s">
         <v>423</v>
       </c>
-      <c r="C48" t="s">
-        <v>424</v>
-      </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" t="s">
         <v>443</v>
       </c>
-      <c r="C50" t="s">
-        <v>444</v>
-      </c>
       <c r="E50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D52" t="s">
         <v>445</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>446</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>447</v>
-      </c>
-      <c r="H52" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" t="s">
         <v>449</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>450</v>
       </c>
-      <c r="E53" t="s">
-        <v>451</v>
-      </c>
       <c r="G53" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" t="s">
         <v>452</v>
       </c>
-      <c r="C54" t="s">
-        <v>453</v>
-      </c>
       <c r="E54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C55" t="s">
         <v>454</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>455</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>456</v>
-      </c>
-      <c r="G55" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C56" t="s">
         <v>458</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>459</v>
       </c>
-      <c r="E56" t="s">
-        <v>460</v>
-      </c>
       <c r="G56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C57" t="s">
+        <v>460</v>
+      </c>
+      <c r="E57" t="s">
         <v>461</v>
       </c>
-      <c r="E57" t="s">
-        <v>462</v>
-      </c>
       <c r="G57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C58" t="s">
         <v>463</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>464</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>465</v>
-      </c>
-      <c r="G58" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C59" t="s">
+        <v>466</v>
+      </c>
+      <c r="E59" t="s">
         <v>467</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>468</v>
-      </c>
-      <c r="G59" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" t="s">
         <v>470</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>471</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>472</v>
-      </c>
-      <c r="H60" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" t="s">
         <v>474</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>475</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>476</v>
-      </c>
-      <c r="G61" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
+        <v>477</v>
+      </c>
+      <c r="E62" t="s">
         <v>478</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>479</v>
-      </c>
-      <c r="G62" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63" t="s">
         <v>481</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>482</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>483</v>
-      </c>
-      <c r="G63" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" t="s">
         <v>485</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>486</v>
-      </c>
-      <c r="G64" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" t="s">
         <v>488</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>489</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>490</v>
-      </c>
-      <c r="G65" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" t="s">
         <v>492</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>493</v>
-      </c>
-      <c r="G66" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C67" t="s">
         <v>495</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>496</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>497</v>
-      </c>
-      <c r="G67" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" t="s">
         <v>499</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>500</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>501</v>
-      </c>
-      <c r="G68" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" t="s">
         <v>503</v>
       </c>
-      <c r="C69" t="s">
-        <v>346</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>504</v>
-      </c>
-      <c r="G69" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C70" t="s">
         <v>506</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>507</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>508</v>
-      </c>
-      <c r="G70" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C71" t="s">
         <v>510</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>511</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>512</v>
-      </c>
-      <c r="G71" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C72" t="s">
         <v>514</v>
       </c>
-      <c r="C72" t="s">
-        <v>515</v>
-      </c>
       <c r="E72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C73" t="s">
         <v>516</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>517</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>518</v>
-      </c>
-      <c r="G73" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74" t="s">
         <v>520</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>521</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>522</v>
-      </c>
-      <c r="H74" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D76" t="s">
         <v>525</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>526</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>527</v>
-      </c>
-      <c r="H76" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C77" t="s">
         <v>529</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>530</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>531</v>
-      </c>
-      <c r="G77" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C78" t="s">
         <v>533</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>534</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>535</v>
-      </c>
-      <c r="G78" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C79" t="s">
         <v>537</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>538</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>539</v>
-      </c>
-      <c r="G79" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" t="s">
         <v>541</v>
       </c>
-      <c r="D80" t="s">
-        <v>346</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>542</v>
-      </c>
-      <c r="H80" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" t="s">
         <v>544</v>
       </c>
-      <c r="C81" t="s">
-        <v>346</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>545</v>
-      </c>
-      <c r="G81" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" t="s">
         <v>547</v>
       </c>
-      <c r="C82" t="s">
-        <v>346</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>548</v>
-      </c>
-      <c r="G82" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D83" t="s">
         <v>550</v>
       </c>
-      <c r="D83" t="s">
-        <v>551</v>
-      </c>
       <c r="F83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C84" t="s">
         <v>552</v>
       </c>
-      <c r="C84" t="s">
-        <v>553</v>
-      </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C85" t="s">
         <v>554</v>
       </c>
-      <c r="C85" t="s">
-        <v>555</v>
-      </c>
       <c r="E85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D86" t="s">
         <v>556</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>557</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>558</v>
-      </c>
-      <c r="H86" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C87" t="s">
         <v>560</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>561</v>
       </c>
-      <c r="E87" t="s">
-        <v>562</v>
-      </c>
       <c r="G87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C88" t="s">
         <v>563</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>564</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>565</v>
-      </c>
-      <c r="G88" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C89" t="s">
         <v>567</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>568</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>569</v>
-      </c>
-      <c r="G89" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C90" t="s">
+        <v>561</v>
+      </c>
+      <c r="E90" t="s">
         <v>571</v>
       </c>
-      <c r="C90" t="s">
-        <v>562</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>572</v>
-      </c>
-      <c r="G90" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E91" t="s">
         <v>574</v>
       </c>
-      <c r="C91" t="s">
-        <v>346</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>575</v>
-      </c>
-      <c r="G91" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D92" t="s">
         <v>577</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>578</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>579</v>
-      </c>
-      <c r="H92" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C93" t="s">
+        <v>577</v>
+      </c>
+      <c r="E93" t="s">
         <v>578</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>579</v>
-      </c>
-      <c r="G93" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" t="s">
         <v>582</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>583</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>584</v>
-      </c>
-      <c r="H94" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" t="s">
         <v>586</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>587</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>588</v>
-      </c>
-      <c r="G95" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C96" t="s">
         <v>590</v>
       </c>
-      <c r="C96" t="s">
-        <v>591</v>
-      </c>
       <c r="E96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C97" t="s">
         <v>592</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>593</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>594</v>
-      </c>
-      <c r="G97" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
         <v>596</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>597</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>598</v>
-      </c>
-      <c r="G98" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C99" t="s">
         <v>600</v>
       </c>
-      <c r="C99" t="s">
-        <v>601</v>
-      </c>
       <c r="E99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C100" t="s">
         <v>602</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>603</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>604</v>
-      </c>
-      <c r="G100" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" t="s">
         <v>606</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>607</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>608</v>
-      </c>
-      <c r="G101" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C102" t="s">
         <v>610</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>611</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
         <v>612</v>
-      </c>
-      <c r="G102" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C103" t="s">
         <v>614</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>615</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>616</v>
-      </c>
-      <c r="G103" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C104" t="s">
         <v>618</v>
       </c>
-      <c r="C104" t="s">
-        <v>619</v>
-      </c>
       <c r="E104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D105" t="s">
         <v>620</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>621</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>622</v>
-      </c>
-      <c r="H105" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D107" t="s">
         <v>625</v>
       </c>
-      <c r="D107" t="s">
-        <v>626</v>
-      </c>
       <c r="F107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D109" t="s">
         <v>628</v>
       </c>
-      <c r="D109" t="s">
-        <v>629</v>
-      </c>
       <c r="F109" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H109" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D111" t="s">
         <v>631</v>
       </c>
-      <c r="D111" t="s">
-        <v>632</v>
-      </c>
       <c r="F111" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H111" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C112" t="s">
         <v>633</v>
       </c>
-      <c r="C112" t="s">
-        <v>634</v>
-      </c>
       <c r="E112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C113" t="s">
         <v>635</v>
       </c>
-      <c r="C113" t="s">
-        <v>636</v>
-      </c>
       <c r="E113" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G113" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C114" t="s">
         <v>637</v>
       </c>
-      <c r="C114" t="s">
-        <v>638</v>
-      </c>
       <c r="E114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D115" t="s">
         <v>639</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>640</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" t="s">
         <v>641</v>
-      </c>
-      <c r="H115" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E116" t="s">
+        <v>640</v>
+      </c>
+      <c r="G116" t="s">
         <v>641</v>
-      </c>
-      <c r="G116" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C117" t="s">
         <v>644</v>
       </c>
-      <c r="C117" t="s">
-        <v>645</v>
-      </c>
       <c r="E117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C118" t="s">
         <v>646</v>
       </c>
-      <c r="C118" t="s">
-        <v>647</v>
-      </c>
       <c r="E118" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G118" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D119" t="s">
         <v>648</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>649</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" t="s">
         <v>650</v>
-      </c>
-      <c r="H119" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C120" t="s">
         <v>652</v>
       </c>
-      <c r="C120" t="s">
-        <v>653</v>
-      </c>
       <c r="E120" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G120" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C121" t="s">
         <v>654</v>
       </c>
-      <c r="C121" t="s">
-        <v>655</v>
-      </c>
       <c r="E121" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G121" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C122" t="s">
         <v>656</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>657</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G122" t="s">
         <v>658</v>
-      </c>
-      <c r="G122" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D123" t="s">
         <v>660</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>661</v>
       </c>
-      <c r="F123" t="s">
+      <c r="H123" t="s">
         <v>662</v>
-      </c>
-      <c r="H123" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D124" t="s">
+        <v>520</v>
+      </c>
+      <c r="F124" t="s">
         <v>521</v>
       </c>
-      <c r="F124" t="s">
+      <c r="H124" t="s">
         <v>522</v>
-      </c>
-      <c r="H124" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="유진기업" sheetId="1" r:id="rId1"/>
@@ -1007,6 +1007,9 @@
     <t>2016.12.31</t>
   </si>
   <si>
+    <t>과                        목</t>
+  </si>
+  <si>
     <t>제 66기</t>
   </si>
   <si>
@@ -2013,10 +2016,6 @@
   </si>
   <si>
     <t>부   채   와  자   본   총   계</t>
-  </si>
-  <si>
-    <t>과                        목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2390,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3816,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3851,1692 +3850,1692 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>664</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G38" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H52" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C56" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E56" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G56" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E62" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G62" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C63" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G63" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G64" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E65" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G65" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E66" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C67" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E67" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G67" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C68" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G68" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E69" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G69" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C70" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E70" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G70" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C71" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E71" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G71" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C73" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E73" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G73" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D74" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H74" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D76" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F76" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H76" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C77" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E77" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G77" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C78" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E78" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G78" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C79" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E79" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G79" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G81" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E82" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G82" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D83" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C84" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C85" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E87" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G87" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C88" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E88" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G88" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C89" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E89" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G89" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C90" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E90" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G90" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E91" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G91" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D92" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F92" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C93" t="s">
+        <v>578</v>
+      </c>
+      <c r="E93" t="s">
+        <v>579</v>
+      </c>
+      <c r="G93" t="s">
         <v>580</v>
-      </c>
-      <c r="C93" t="s">
-        <v>577</v>
-      </c>
-      <c r="E93" t="s">
-        <v>578</v>
-      </c>
-      <c r="G93" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F94" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H94" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C95" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E95" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G95" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C96" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E96" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G96" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E97" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G97" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C98" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E98" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G98" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C99" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E99" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G99" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C100" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E100" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G100" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C101" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E101" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G101" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C102" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E102" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G102" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C103" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E103" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G103" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C104" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E104" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G104" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D105" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F105" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H105" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C108" t="s">
         <v>626</v>
       </c>
-      <c r="C108" t="s">
-        <v>625</v>
-      </c>
       <c r="E108" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G108" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D109" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F109" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H109" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C110" t="s">
         <v>629</v>
       </c>
-      <c r="C110" t="s">
-        <v>628</v>
-      </c>
       <c r="E110" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G110" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C112" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E112" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G112" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D115" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F115" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H115" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C116" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" t="s">
+        <v>641</v>
+      </c>
+      <c r="G116" t="s">
         <v>642</v>
-      </c>
-      <c r="C116" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" t="s">
-        <v>640</v>
-      </c>
-      <c r="G116" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C117" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C118" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D119" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F119" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H119" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C120" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E120" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G120" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C121" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E121" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G121" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C122" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E122" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G122" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D123" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D124" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F124" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H124" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="유진기업" sheetId="1" r:id="rId1"/>
@@ -2389,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -3815,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
